--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/10/seed1/result_data_RandomForest.xlsx
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.1389</v>
+        <v>-21.06490000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.123</v>
+        <v>-11.2033</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.76000000000002</v>
+        <v>-14.60070000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.54920000000001</v>
+        <v>-21.59610000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.7612</v>
+        <v>-11.73250000000001</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.20709999999998</v>
+        <v>-20.16939999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.8887</v>
+        <v>-11.84030000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
